--- a/data/trans_dic/P25A$rendimiento-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P25A$rendimiento-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,07; 6,19</t>
+          <t>2,09; 6,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,09; 4,89</t>
+          <t>1,1; 4,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,89; 8,69</t>
+          <t>2,79; 9,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,15</t>
+          <t>0,0; 13,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,68</t>
+          <t>0,0; 9,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,47</t>
+          <t>0,0; 11,61</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,1; 5,8</t>
+          <t>2,17; 6,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,3; 4,67</t>
+          <t>1,42; 4,86</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,77; 8,4</t>
+          <t>2,73; 8,1</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,2; 5,59</t>
+          <t>1,18; 5,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,16; 7,76</t>
+          <t>3,24; 8,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,4; 7,29</t>
+          <t>2,49; 7,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,86; 8,63</t>
+          <t>1,89; 8,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,52; 5,44</t>
+          <t>0,54; 5,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,43; 8,49</t>
+          <t>2,54; 8,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,98; 5,71</t>
+          <t>1,92; 5,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,56; 5,9</t>
+          <t>2,44; 5,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,95; 6,93</t>
+          <t>3,01; 6,79</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,7</t>
+          <t>0,0; 7,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,92; 8,17</t>
+          <t>0,89; 8,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,15; 15,45</t>
+          <t>2,16; 14,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,85; 18,42</t>
+          <t>2,24; 18,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,45; 14,28</t>
+          <t>2,38; 13,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,07; 11,96</t>
+          <t>2,12; 12,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,53; 8,56</t>
+          <t>1,98; 8,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,14; 8,22</t>
+          <t>1,82; 7,99</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,01; 10,5</t>
+          <t>3,02; 10,7</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,09; 4,81</t>
+          <t>2,1; 4,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,63; 5,33</t>
+          <t>2,44; 5,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,49; 7,06</t>
+          <t>3,39; 7,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,81; 8,19</t>
+          <t>2,93; 8,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,87; 5,98</t>
+          <t>1,78; 5,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,95; 7,6</t>
+          <t>2,95; 7,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,61; 5,1</t>
+          <t>2,66; 5,01</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,64; 4,93</t>
+          <t>2,56; 4,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,61; 6,61</t>
+          <t>3,78; 6,51</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo para dejar de fumar fue, al menos, la disminución del rendimiento</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>11295</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>9636</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>11176</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2227</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1036</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>13325</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>11864</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>12212</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>6336; 19658</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4087; 17833</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>5861; 18914</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6510</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6786</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4369</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>7609; 21509</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>6268; 21426</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>6750; 20034</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>6808</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>18010</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>13558</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>6645</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>5217</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>9871</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>13454</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>23228</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>23430</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>2807; 13137</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>11253; 28087</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>7529; 22693</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2862; 13046</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1295; 13725</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>5111; 17418</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>7446; 21604</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>14348; 34213</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>15136; 34161</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1879</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2770</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>5650</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>3968</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>4942</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>5200</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>5848</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>7712</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>10850</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6417</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>860; 8342</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1932; 12964</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1150; 9700</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1840; 10782</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2017; 11677</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2688; 11345</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3153; 13873</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>5580; 19754</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>19983</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>30416</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>30384</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>12643</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>12387</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>16107</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>32626</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>42803</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>46491</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>13128; 30466</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>19923; 42768</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>20385; 43442</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>7348; 21121</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>6864; 21879</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>9840; 25657</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>23317; 43831</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>30754; 58175</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>35388; 60879</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>